--- a/Movies_Table.xlsx
+++ b/Movies_Table.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -189,6 +189,117 @@
   </si>
   <si>
     <t>revenue</t>
+  </si>
+  <si>
+    <t>The Great Gatsby</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>Indiana Jones and the Kingdom of the Crystal Skull</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Dawn of the Planet of the Apes</t>
+  </si>
+  <si>
+    <t>47 Ronin</t>
+  </si>
+  <si>
+    <t>Shrek Forever After</t>
+  </si>
+  <si>
+    <t>The Polar Express</t>
+  </si>
+  <si>
+    <t>Godzilla Resurge</t>
+  </si>
+  <si>
+    <t>The Hunger Games: Mockingjay</t>
+  </si>
+  <si>
+    <t>Poseidon</t>
+  </si>
+  <si>
+    <t>Gods of Egipt</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Bad Boys II</t>
+  </si>
+  <si>
+    <t>The Matrix Resolution</t>
   </si>
 </sst>
 </file>
@@ -540,13 +651,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.9296875" customWidth="1"/>
+    <col min="2" max="2" width="42.3984375" customWidth="1"/>
+    <col min="4" max="4" width="23.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -564,13 +680,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>19995</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>7.2</v>
+      <c r="C2" t="s">
+        <v>76</v>
       </c>
       <c r="D2">
         <v>2787965087</v>
@@ -578,13 +694,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>285</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>6.9</v>
+      <c r="C3" t="s">
+        <v>70</v>
       </c>
       <c r="D3">
         <v>961000000</v>
@@ -592,13 +708,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>206647</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>6.3</v>
+      <c r="C4" t="s">
+        <v>63</v>
       </c>
       <c r="D4">
         <v>880674609</v>
@@ -606,13 +722,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>49026</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>7.6</v>
+      <c r="C5" t="s">
+        <v>60</v>
       </c>
       <c r="D5">
         <v>1084939099</v>
@@ -620,13 +736,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>49529</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>6.1</v>
+      <c r="C6" t="s">
+        <v>74</v>
       </c>
       <c r="D6">
         <v>284139100</v>
@@ -634,13 +750,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>5.9</v>
+      <c r="C7" t="s">
+        <v>59</v>
       </c>
       <c r="D7">
         <v>890871626</v>
@@ -648,13 +764,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>38757</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>7.4</v>
+      <c r="C8" t="s">
+        <v>56</v>
       </c>
       <c r="D8">
         <v>591794936</v>
@@ -662,13 +778,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>99861</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>7.3</v>
+      <c r="C9" t="s">
+        <v>54</v>
       </c>
       <c r="D9">
         <v>1405403694</v>
@@ -676,13 +792,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>767</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>7.4</v>
+      <c r="C10" t="s">
+        <v>56</v>
       </c>
       <c r="D10">
         <v>933959197</v>
@@ -690,13 +806,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>209112</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>5.7</v>
+      <c r="C11" t="s">
+        <v>65</v>
       </c>
       <c r="D11">
         <v>873260194</v>
@@ -704,13 +820,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>1452</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
-        <v>5.4</v>
+      <c r="C12" t="s">
+        <v>75</v>
       </c>
       <c r="D12">
         <v>391081192</v>
@@ -718,13 +834,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>10764</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
-        <v>6.1</v>
+      <c r="C13" t="s">
+        <v>74</v>
       </c>
       <c r="D13">
         <v>586090727</v>
@@ -732,13 +848,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
-        <v>7</v>
+      <c r="C14" t="s">
+        <v>66</v>
       </c>
       <c r="D14">
         <v>1065659812</v>
@@ -746,13 +862,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>57201</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
-        <v>5.9</v>
+      <c r="C15" t="s">
+        <v>59</v>
       </c>
       <c r="D15">
         <v>89289910</v>
@@ -760,13 +876,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>49521</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
-        <v>6.5</v>
+      <c r="C16" t="s">
+        <v>64</v>
       </c>
       <c r="D16">
         <v>662845518</v>
@@ -774,13 +890,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>2454</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
-        <v>6.3</v>
+      <c r="C17" t="s">
+        <v>63</v>
       </c>
       <c r="D17">
         <v>419651413</v>
@@ -788,13 +904,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>24428</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
-        <v>7.4</v>
+      <c r="C18" t="s">
+        <v>56</v>
       </c>
       <c r="D18">
         <v>1519557910</v>
@@ -802,13 +918,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>1865</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
-        <v>6.4</v>
+      <c r="C19" t="s">
+        <v>68</v>
       </c>
       <c r="D19">
         <v>1045713802</v>
@@ -816,13 +932,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>41154</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
-        <v>6.2</v>
+      <c r="C20" t="s">
+        <v>73</v>
       </c>
       <c r="D20">
         <v>624026776</v>
@@ -830,13 +946,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>122917</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
-        <v>7.1</v>
+      <c r="C21" t="s">
+        <v>71</v>
       </c>
       <c r="D21">
         <v>956019788</v>
@@ -844,13 +960,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>1930</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
-        <v>6.5</v>
+      <c r="C22" t="s">
+        <v>64</v>
       </c>
       <c r="D22">
         <v>752215857</v>
@@ -858,13 +974,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>20662</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23">
-        <v>6.2</v>
+      <c r="C23" t="s">
+        <v>73</v>
       </c>
       <c r="D23">
         <v>310669540</v>
@@ -872,13 +988,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>57158</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
-        <v>7.6</v>
+      <c r="C24" t="s">
+        <v>60</v>
       </c>
       <c r="D24">
         <v>958400000</v>
@@ -886,13 +1002,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>2268</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25">
-        <v>5.8</v>
+      <c r="C25" t="s">
+        <v>62</v>
       </c>
       <c r="D25">
         <v>372234864</v>
@@ -900,13 +1016,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26">
-        <v>6.6</v>
+      <c r="C26" t="s">
+        <v>72</v>
       </c>
       <c r="D26">
         <v>550000000</v>
@@ -914,13 +1030,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>597</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27">
-        <v>7.5</v>
+      <c r="C27" t="s">
+        <v>57</v>
       </c>
       <c r="D27">
         <v>1845034188</v>
@@ -928,13 +1044,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>271110</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28">
-        <v>7.1</v>
+      <c r="C28" t="s">
+        <v>71</v>
       </c>
       <c r="D28">
         <v>1153304495</v>
@@ -942,13 +1058,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>44833</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29">
-        <v>5.5</v>
+      <c r="C29" t="s">
+        <v>55</v>
       </c>
       <c r="D29">
         <v>303025485</v>
@@ -956,13 +1072,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>135397</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30">
-        <v>6.5</v>
+      <c r="C30" t="s">
+        <v>64</v>
       </c>
       <c r="D30">
         <v>1513528810</v>
@@ -970,13 +1086,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>37724</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31">
-        <v>6.9</v>
+      <c r="C31" t="s">
+        <v>70</v>
       </c>
       <c r="D31">
         <v>1108561013</v>
@@ -984,13 +1100,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>558</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32">
-        <v>6.7</v>
+      <c r="C32" t="s">
+        <v>58</v>
       </c>
       <c r="D32">
         <v>783766341</v>
@@ -998,13 +1114,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>68721</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="C33">
-        <v>6.8</v>
+      <c r="C33" t="s">
+        <v>69</v>
       </c>
       <c r="D33">
         <v>1215439994</v>
@@ -1012,13 +1128,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>12155</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34">
-        <v>6.4</v>
+      <c r="C34" t="s">
+        <v>68</v>
       </c>
       <c r="D34">
         <v>1025491110</v>
@@ -1026,13 +1142,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>36668</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35">
-        <v>6.3</v>
+      <c r="C35" t="s">
+        <v>63</v>
       </c>
       <c r="D35">
         <v>459359555</v>
@@ -1040,13 +1156,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>62211</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36">
-        <v>7</v>
+      <c r="C36" t="s">
+        <v>66</v>
       </c>
       <c r="D36">
         <v>743559607</v>
@@ -1054,13 +1170,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>8373</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="C37">
-        <v>6</v>
+      <c r="C37" t="s">
+        <v>67</v>
       </c>
       <c r="D37">
         <v>836297228</v>
@@ -1068,13 +1184,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>91314</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="C38">
-        <v>5.8</v>
+      <c r="C38" t="s">
+        <v>62</v>
       </c>
       <c r="D38">
         <v>1091405097</v>
@@ -1082,13 +1198,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>68728</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="C39">
-        <v>5.7</v>
+      <c r="C39" t="s">
+        <v>65</v>
       </c>
       <c r="D39">
         <v>491868548</v>
@@ -1096,13 +1212,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>102382</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="C40">
-        <v>6.5</v>
+      <c r="C40" t="s">
+        <v>64</v>
       </c>
       <c r="D40">
         <v>705717432</v>
@@ -1110,13 +1226,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>20526</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="C41">
-        <v>6.3</v>
+      <c r="C41" t="s">
+        <v>63</v>
       </c>
       <c r="D41">
         <v>400062763</v>
@@ -1124,13 +1240,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>49013</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="C42">
-        <v>5.8</v>
+      <c r="C42" t="s">
+        <v>62</v>
       </c>
       <c r="D42">
         <v>559852396</v>
@@ -1138,13 +1254,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>44912</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C43">
-        <v>5.0999999999999996</v>
+      <c r="C43" t="s">
+        <v>61</v>
       </c>
       <c r="D43">
         <v>219851172</v>
@@ -1152,13 +1268,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>10193</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="C44">
-        <v>7.6</v>
+      <c r="C44" t="s">
+        <v>60</v>
       </c>
       <c r="D44">
         <v>1066969703</v>
@@ -1166,13 +1282,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="C45">
-        <v>5.9</v>
+      <c r="C45" t="s">
+        <v>59</v>
       </c>
       <c r="D45">
         <v>371353001</v>
@@ -1180,13 +1296,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>168259</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="C46">
-        <v>7.3</v>
+      <c r="C46" t="s">
+        <v>54</v>
       </c>
       <c r="D46">
         <v>1506249360</v>
@@ -1194,13 +1310,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>72190</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="C47">
-        <v>6.7</v>
+      <c r="C47" t="s">
+        <v>58</v>
       </c>
       <c r="D47">
         <v>531865000</v>
@@ -1208,13 +1324,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>127585</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
-      <c r="C48">
-        <v>7.5</v>
+      <c r="C48" t="s">
+        <v>57</v>
       </c>
       <c r="D48">
         <v>747862775</v>
@@ -1222,13 +1338,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>54138</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="C49">
-        <v>7.4</v>
+      <c r="C49" t="s">
+        <v>56</v>
       </c>
       <c r="D49">
         <v>467365246</v>
@@ -1236,16 +1352,198 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>81005</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
-      <c r="C50">
-        <v>5.5</v>
+      <c r="C50" t="s">
+        <v>55</v>
       </c>
       <c r="D50">
         <v>197687603</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <v>351040419</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52">
+        <v>786636033</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53">
+        <v>331926147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>710644566</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55">
+        <v>150962475</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56">
+        <v>752600867</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57">
+        <v>305875730</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58">
+        <v>77000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59">
+        <v>653428261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60">
+        <v>181674817</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61">
+        <v>150680864</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62">
+        <v>273339556</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63">
+        <v>424988211</v>
       </c>
     </row>
   </sheetData>
